--- a/artfynd/A 23021-2025 artfynd.xlsx
+++ b/artfynd/A 23021-2025 artfynd.xlsx
@@ -2519,7 +2519,7 @@
         <v>128948597</v>
       </c>
       <c r="B19" t="n">
-        <v>57893</v>
+        <v>57897</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
